--- a/misc/spmm-example-workbook.xlsx
+++ b/misc/spmm-example-workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caldridge\Documents\R\meta-pop-bio\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3393CCDF-43D6-4107-82E2-ECC6F578D4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4935210-12D2-4474-B5F6-766CCE4932B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
